--- a/charts.xlsx
+++ b/charts.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11460" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,18 +28,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>algorithm</t>
+    <t>dataset</t>
   </si>
   <si>
-    <t>SVC</t>
+    <t>SVC - a</t>
   </si>
   <si>
-    <t>OrdinalClassifier with SVC</t>
+    <t>Ordinal - tt</t>
   </si>
   <si>
-    <t>dataset</t>
+    <t>Ordinal - a</t>
+  </si>
+  <si>
+    <t>SVC - tt</t>
+  </si>
+  <si>
+    <t># records</t>
+  </si>
+  <si>
+    <t>Wine Quality</t>
+  </si>
+  <si>
+    <t>Combined Cycle Power Plant</t>
+  </si>
+  <si>
+    <t>BlogFeedback</t>
   </si>
   <si>
     <t>Facebook Comment Volume</t>
@@ -43,27 +62,20 @@
   <si>
     <t>Online News Popularity</t>
   </si>
-  <si>
-    <t>average accuracy</t>
-  </si>
-  <si>
-    <t>average train time</t>
-  </si>
-  <si>
-    <t>Wine Quality (4898)</t>
-  </si>
-  <si>
-    <t>Combined Cycle Power Plant (9568)</t>
-  </si>
-  <si>
-    <t>BlogFeedback (52397)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -89,12 +101,133 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,6 +243,2323 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVC - a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.62783077275900001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88336132746200002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99862594327099996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99865688076500003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99974775820100004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE87-4297-9B2D-32F28398960F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ordinal - a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.62436138500299998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88242077934600005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99862594327099996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99865688076500003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99974775820100004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE87-4297-9B2D-32F28398960F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="428230976"/>
+        <c:axId val="429802512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428230976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429802512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429802512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428230976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Train Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVC - tt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.2288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.695</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4116.0676000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1635.848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254.5232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3FA-4B29-A73D-D33DE3132D7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ordinal - tt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.020200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91.699399999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4206.4722000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1637.0255999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>430.7448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3FA-4B29-A73D-D33DE3132D7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="434362216"/>
+        <c:axId val="434362544"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D3FA-4B29-A73D-D33DE3132D7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="427733864"/>
+        <c:axId val="427733536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="434362216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434362544"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="434362544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434362216"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="427733536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427733864"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="427733864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="427733536"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9F89E0-EA8D-4590-887C-E4C3C3C33930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3CB3AD-4350-414B-A233-38513B4D1E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ofri" refreshedDate="42902.394002314817" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="I1:M11" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="dataset" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Wine Quality (4898)"/>
+        <s v="Combined Cycle Power Plant (9568)"/>
+        <s v="BlogFeedback (52397)"/>
+        <s v="Facebook Comment Volume (40949)"/>
+        <s v="Online News Popularity (39644)"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="algorithm" numFmtId="0">
+      <sharedItems count="2">
+        <s v="SVC"/>
+        <s v="OrdinalClassifier with SVC"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="average accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.62436138500299998" maxValue="0.99974775820100004"/>
+    </cacheField>
+    <cacheField name="average train time" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="12.2288" maxValue="4206.4722000000002"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="10">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="0.62783077275900001"/>
+    <n v="12.2288"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="0.62436138500299998"/>
+    <n v="14.020200000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="0.88336132746200002"/>
+    <n v="58.695"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="0.88242077934600005"/>
+    <n v="91.699399999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="0.99862594327099996"/>
+    <n v="4116.0676000000003"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="0.99862594327099996"/>
+    <n v="4206.4722000000002"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0.99865688076500003"/>
+    <n v="1635.848"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="0.99865688076500003"/>
+    <n v="1637.0255999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="0.99974775820100004"/>
+    <n v="254.5232"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="0.99974775820100004"/>
+    <n v="430.7448"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="4">
+    <pivotField subtotalTop="0" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,139 +2859,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I1:L11"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:12">
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
-    <row r="2" spans="9:12">
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0.62783077275900001</v>
-      </c>
-      <c r="L2">
-        <v>12.2288</v>
-      </c>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
-    <row r="3" spans="9:12">
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3">
-        <v>0.62436138500299998</v>
-      </c>
-      <c r="L3">
-        <v>14.020200000000001</v>
-      </c>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
     </row>
-    <row r="4" spans="9:12">
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0.88336132746200002</v>
-      </c>
-      <c r="L4">
-        <v>58.695</v>
-      </c>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
-    <row r="5" spans="9:12">
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>0.88242077934600005</v>
-      </c>
-      <c r="L5">
-        <v>91.699399999999997</v>
-      </c>
+    <row r="7" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
     </row>
-    <row r="6" spans="9:12">
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
     </row>
-    <row r="7" spans="9:12">
-      <c r="I7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
+    <row r="9" spans="1:3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
     </row>
-    <row r="8" spans="9:12">
-      <c r="I8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
-    <row r="9" spans="9:12">
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
+    <row r="11" spans="1:3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
     </row>
-    <row r="10" spans="9:12">
-      <c r="I10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
-    <row r="11" spans="9:12">
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s">
-        <v>2</v>
-      </c>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="I1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="9:14">
+      <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="9:14">
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.62783077275900001</v>
+      </c>
+      <c r="K2" s="1">
+        <v>12.2288</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.62436138500299998</v>
+      </c>
+      <c r="M2" s="1">
+        <v>14.020200000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="3" spans="9:14">
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.88336132746200002</v>
+      </c>
+      <c r="K3" s="1">
+        <v>58.695</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.88242077934600005</v>
+      </c>
+      <c r="M3" s="1">
+        <v>91.699399999999997</v>
+      </c>
+      <c r="N3" s="1">
+        <v>9568</v>
+      </c>
+    </row>
+    <row r="4" spans="9:14">
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.99862594327099996</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4116.0676000000003</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.99862594327099996</v>
+      </c>
+      <c r="M4" s="1">
+        <v>4206.4722000000002</v>
+      </c>
+      <c r="N4" s="1">
+        <v>52397</v>
+      </c>
+    </row>
+    <row r="5" spans="9:14">
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.99865688076500003</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1635.848</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.99865688076500003</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1637.0255999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>40949</v>
+      </c>
+    </row>
+    <row r="6" spans="9:14">
+      <c r="I6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.99974775820100004</v>
+      </c>
+      <c r="K6" s="1">
+        <v>254.5232</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.99974775820100004</v>
+      </c>
+      <c r="M6" s="1">
+        <v>430.7448</v>
+      </c>
+      <c r="N6" s="1">
+        <v>39644</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/charts.xlsx
+++ b/charts.xlsx
@@ -28,21 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+  <si>
+    <t>SVC</t>
+  </si>
   <si>
     <t>dataset</t>
-  </si>
-  <si>
-    <t>SVC - a</t>
-  </si>
-  <si>
-    <t>Ordinal - tt</t>
-  </si>
-  <si>
-    <t>Ordinal - a</t>
-  </si>
-  <si>
-    <t>SVC - tt</t>
   </si>
   <si>
     <t># records</t>
@@ -61,6 +52,30 @@
   </si>
   <si>
     <t>Online News Popularity</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Train Time</t>
+  </si>
+  <si>
+    <t>Score Time</t>
+  </si>
+  <si>
+    <t>Ordinal SVC</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
+  <si>
+    <t>Ordinal RandomForest</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>Ordinal MLP</t>
   </si>
 </sst>
 </file>
@@ -216,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -228,6 +243,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,6 +297,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SVC </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Accuracy</a:t>
             </a:r>
@@ -326,11 +350,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVC - a</c:v>
+                  <c:v>SVC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -347,7 +371,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -370,7 +394,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:f>Sheet1!$J$3:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -394,7 +418,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE87-4297-9B2D-32F28398960F}"/>
+              <c16:uniqueId val="{00000000-FD07-489D-96BA-53766E5C0C15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -403,11 +427,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$1</c:f>
+              <c:f>Sheet1!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ordinal - a</c:v>
+                  <c:v>Ordinal SVC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -424,7 +448,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -447,15 +471,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$2:$L$6</c:f>
+              <c:f>Sheet1!$K$3:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.62436138500299998</c:v>
+                  <c:v>0.62354443309499996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88242077934600005</c:v>
+                  <c:v>0.881793820098</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.99862594327099996</c:v>
@@ -471,7 +495,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE87-4297-9B2D-32F28398960F}"/>
+              <c16:uniqueId val="{00000001-FD07-489D-96BA-53766E5C0C15}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -485,11 +509,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="428230976"/>
-        <c:axId val="429802512"/>
+        <c:axId val="426357856"/>
+        <c:axId val="426358184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="428230976"/>
+        <c:axId val="426357856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,7 +556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429802512"/>
+        <c:crossAx val="426358184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -540,7 +564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="429802512"/>
+        <c:axId val="426358184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,7 +615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="428230976"/>
+        <c:crossAx val="426357856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -705,8 +729,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Random Forest </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Train Time</a:t>
+              <a:t>Accuracy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -752,11 +782,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$1</c:f>
+              <c:f>Sheet1!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVC - tt</c:v>
+                  <c:v>RandomForest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -773,7 +803,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -796,31 +826,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$2:$K$6</c:f>
+              <c:f>Sheet1!$L$3:$L$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.2288</c:v>
+                  <c:v>0.69356840591199997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.695</c:v>
+                  <c:v>0.90635474925199999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4116.0676000000003</c:v>
+                  <c:v>0.998530514318</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1635.848</c:v>
+                  <c:v>0.998705723795</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254.5232</c:v>
+                  <c:v>0.99974775820100004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3FA-4B29-A73D-D33DE3132D7F}"/>
+              <c16:uniqueId val="{00000000-B3EA-4E3B-8627-1C0068665FE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -829,11 +859,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ordinal - tt</c:v>
+                  <c:v>Ordinal RandomForest</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -850,7 +880,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -873,31 +903,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$6</c:f>
+              <c:f>Sheet1!$M$3:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>14.020200000000001</c:v>
+                  <c:v>0.69785745554599998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.699399999999997</c:v>
+                  <c:v>0.90708647482100002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4206.4722000000002</c:v>
+                  <c:v>0.99862594327099996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1637.0255999999999</c:v>
+                  <c:v>0.99863246074000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>430.7448</c:v>
+                  <c:v>0.99974775820100004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D3FA-4B29-A73D-D33DE3132D7F}"/>
+              <c16:uniqueId val="{00000001-B3EA-4E3B-8627-1C0068665FE8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -909,108 +939,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="434362216"/>
-        <c:axId val="434362544"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="571561496"/>
+        <c:axId val="571561824"/>
       </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v># records</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Wine Quality</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Combined Cycle Power Plant</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BlogFeedback</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Facebook Comment Volume</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Online News Popularity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$N$2:$N$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4898</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9568</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52397</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>40949</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39644</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D3FA-4B29-A73D-D33DE3132D7F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="427733864"/>
-        <c:axId val="427733536"/>
-      </c:lineChart>
       <c:catAx>
-        <c:axId val="434362216"/>
+        <c:axId val="571561496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,14 +988,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434362544"/>
+        <c:crossAx val="571561824"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="434362544"/>
+        <c:axId val="571561824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,16 +1047,407 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="434362216"/>
+        <c:crossAx val="571561496"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="427733536"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MLP </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64906255862899997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80038164874200002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99856868590000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99811963426299999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99846133488699995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAD5-4289-B42C-6D3B6AE45680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ordinal MLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.64559108628100004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82922210187000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99765259708800003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99189252505400005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99974775820100004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CAD5-4289-B42C-6D3B6AE45680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="573204648"/>
+        <c:axId val="572805224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="573204648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572805224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572805224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1152,22 +1479,3496 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="427733864"/>
+        <c:crossAx val="573204648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SVC Train Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$3:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.6426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.9026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4165.5878000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1721.4775999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267.83080000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E19D-41FC-96B5-2FFBE1AB797E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ordinal SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$3:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.2402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.213800000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4258.4178000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1731.4192</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>451.80759999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E19D-41FC-96B5-2FFBE1AB797E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="564408200"/>
+        <c:axId val="564408856"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$3:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E19D-41FC-96B5-2FFBE1AB797E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="432764000"/>
+        <c:axId val="432762032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="564408200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564408856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="564408856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="564408200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432762032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432764000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="427733864"/>
+        <c:axId val="432764000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="432762032"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random Forest Train Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$3:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.14319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1376</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2782</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25240000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F692-42ED-A2CA-E0DC2190414D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ordinal RandomForest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45679999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F692-42ED-A2CA-E0DC2190414D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="568724856"/>
+        <c:axId val="568723872"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$3:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F692-42ED-A2CA-E0DC2190414D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="421769936"/>
+        <c:axId val="421769608"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="568724856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="427733536"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568723872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="568723872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="568724856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="421769608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421769936"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="421769936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="421769608"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MLP Train Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$3:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35.470199999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133.01939999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404.39280000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.290599999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216.35300000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67DD-4C9F-8F45-D996DA5F4812}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ordinal MLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$3:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>125.0206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>214.1968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>546.44680000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.34180000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>342.29759999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-67DD-4C9F-8F45-D996DA5F4812}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="575404656"/>
+        <c:axId val="575404984"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$3:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-67DD-4C9F-8F45-D996DA5F4812}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="573532992"/>
+        <c:axId val="573533320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="575404656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575404984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="575404984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575404656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573533320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573532992"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="573532992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="573533320"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>SVC Score Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$3:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.072000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.070799999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8614000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97B2-41CB-BFF9-D5483E063D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ordinal SVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$3:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.75039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>167.5504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.565199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.055399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97B2-41CB-BFF9-D5483E063D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="571926752"/>
+        <c:axId val="428199640"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$3:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97B2-41CB-BFF9-D5483E063D6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="577267792"/>
+        <c:axId val="577267464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="571926752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428199640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428199640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571926752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="577267464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577267792"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="577267792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="577267464"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Random Forest Score</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$3:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.12920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A089-4E0A-A42B-44BC96B62B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ordinal RandomForest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>503.84379999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>985.03179999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5373.7658000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4169.5038000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4071.7665999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A089-4E0A-A42B-44BC96B62B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="570075648"/>
+        <c:axId val="570076304"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$3:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A089-4E0A-A42B-44BC96B62B42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="573557992"/>
+        <c:axId val="573557664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="570075648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570076304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="570076304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="570075648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="573557664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="573557992"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="573557992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="573557664"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>MLP Score Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$3:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.1599999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.96E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.64E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.9799999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5386-4B7E-BA8A-10F4E8BE4E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ordinal MLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$3:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.31759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>798.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1661999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5386-4B7E-BA8A-10F4E8BE4E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="583862640"/>
+        <c:axId val="583862968"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v># records</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$3:$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Wine Quality</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Combined Cycle Power Plant</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BlogFeedback</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Facebook Comment Volume</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Online News Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$3:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9568</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40949</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5386-4B7E-BA8A-10F4E8BE4E7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="575834096"/>
+        <c:axId val="575835408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="583862640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583862968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="583862968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583862640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="575835408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="575834096"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="575834096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="575835408"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1329,6 +5130,286 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1833,7 +5914,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2037,23 +6118,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2223,17 +6303,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2302,20 +6371,3540 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2352,23 +9941,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9F89E0-EA8D-4590-887C-E4C3C3C33930}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF647AD-9666-4FA6-884F-18DD7037E47D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,23 +9977,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3CB3AD-4350-414B-A233-38513B4D1E04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFE60D8-000C-4DD4-BD0E-94D0CEEC806E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,13 +10011,265 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B797ABB8-1F9B-43D5-A1C4-ABC6A4112F5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{926EA8C4-D1ED-49CE-B250-3F1DC6629848}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>366712</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2BBC24-5613-4BA1-8A5D-CC6BE2FC0BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79CA9F8-B8FA-42B1-899F-B0887EF751EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>204787</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6259E6-D9F0-4ADA-8C4D-4CA3AA968901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B791ED0-225D-40DD-A5ED-5F74F84076FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A031F8A-946B-441D-89AD-1B41A4B9AF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Ofri" refreshedDate="42902.394002314817" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10">
   <cacheSource type="worksheet">
-    <worksheetSource ref="I1:M11" sheet="Sheet1"/>
+    <worksheetSource ref="I2:M11" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="dataset" numFmtId="0">
@@ -2969,145 +10810,442 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I1:N6"/>
+  <dimension ref="I1:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:N6"/>
+    <sheetView tabSelected="1" topLeftCell="K28" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="27" max="27" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="9:14">
-      <c r="I1" s="1" t="s">
+    <row r="1" spans="9:28">
+      <c r="J1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+    </row>
+    <row r="2" spans="9:28">
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="9:28">
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.62783077275900001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.62354443309499996</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.69356840591199997</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.69785745554599998</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.64906255862899997</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.64559108628100004</v>
+      </c>
+      <c r="P3" s="1">
+        <v>12.6426</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>14.2402</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.33019999999999999</v>
+      </c>
+      <c r="T3" s="1">
+        <v>35.470199999999998</v>
+      </c>
+      <c r="U3" s="1">
+        <v>125.0206</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.19139999999999999</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.75039999999999996</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>503.84379999999999</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.31759999999999999</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>4898</v>
+      </c>
+    </row>
+    <row r="4" spans="9:28">
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="J4" s="1">
+        <v>0.88336132746200002</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.881793820098</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.90635474925199999</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.90708647482100002</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.80038164874200002</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.82922210187000001</v>
+      </c>
+      <c r="P4" s="1">
+        <v>59.9026</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>93.213800000000006</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.1376</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="T4" s="1">
+        <v>133.01939999999999</v>
+      </c>
+      <c r="U4" s="1">
+        <v>214.1968</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1.9976</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.1288</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>985.03179999999998</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>5.96E-2</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>9568</v>
+      </c>
+    </row>
+    <row r="5" spans="9:28">
+      <c r="I5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="J5" s="1">
+        <v>0.99862594327099996</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.99862594327099996</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.998530514318</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.99862594327099996</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.99856868590000003</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.99765259708800003</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4165.5878000000002</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>4258.4178000000002</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.24279999999999999</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.45619999999999999</v>
+      </c>
+      <c r="T5" s="1">
+        <v>404.39280000000002</v>
+      </c>
+      <c r="U5" s="1">
+        <v>546.44680000000005</v>
+      </c>
+      <c r="V5" s="1">
+        <v>73.072000000000003</v>
+      </c>
+      <c r="W5" s="1">
+        <v>167.5504</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.1404</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>5373.7658000000001</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.1198</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>798.62</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>52397</v>
+      </c>
     </row>
-    <row r="2" spans="9:14">
-      <c r="I2" s="1" t="s">
+    <row r="6" spans="9:28">
+      <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1">
-        <v>0.62783077275900001</v>
-      </c>
-      <c r="K2" s="1">
-        <v>12.2288</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.62436138500299998</v>
-      </c>
-      <c r="M2" s="1">
-        <v>14.020200000000001</v>
-      </c>
-      <c r="N2" s="1">
-        <v>4898</v>
+      <c r="J6" s="1">
+        <v>0.99865688076500003</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.99865688076500003</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.998705723795</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.99863246074000001</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.99811963426299999</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.99189252505400005</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1721.4775999999999</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1731.4192</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.2782</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.46179999999999999</v>
+      </c>
+      <c r="T6" s="1">
+        <v>65.290599999999998</v>
+      </c>
+      <c r="U6" s="1">
+        <v>100.34180000000001</v>
+      </c>
+      <c r="V6" s="1">
+        <v>20.070799999999998</v>
+      </c>
+      <c r="W6" s="1">
+        <v>52.565199999999997</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.13120000000000001</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4169.5038000000004</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>2.64E-2</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>2.2942</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>40949</v>
       </c>
     </row>
-    <row r="3" spans="9:14">
-      <c r="I3" s="1" t="s">
+    <row r="7" spans="9:28">
+      <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1">
-        <v>0.88336132746200002</v>
-      </c>
-      <c r="K3" s="1">
-        <v>58.695</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.88242077934600005</v>
-      </c>
-      <c r="M3" s="1">
-        <v>91.699399999999997</v>
-      </c>
-      <c r="N3" s="1">
-        <v>9568</v>
-      </c>
-    </row>
-    <row r="4" spans="9:14">
-      <c r="I4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.99862594327099996</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4116.0676000000003</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.99862594327099996</v>
-      </c>
-      <c r="M4" s="1">
-        <v>4206.4722000000002</v>
-      </c>
-      <c r="N4" s="1">
-        <v>52397</v>
-      </c>
-    </row>
-    <row r="5" spans="9:14">
-      <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.99865688076500003</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1635.848</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.99865688076500003</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1637.0255999999999</v>
-      </c>
-      <c r="N5" s="1">
-        <v>40949</v>
-      </c>
-    </row>
-    <row r="6" spans="9:14">
-      <c r="I6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="J7" s="1">
         <v>0.99974775820100004</v>
       </c>
-      <c r="K6" s="1">
-        <v>254.5232</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="K7" s="1">
         <v>0.99974775820100004</v>
       </c>
-      <c r="M6" s="1">
-        <v>430.7448</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="L7" s="1">
+        <v>0.99974775820100004</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.99974775820100004</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.99846133488699995</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.99974775820100004</v>
+      </c>
+      <c r="P7" s="1">
+        <v>267.83080000000001</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>451.80759999999998</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="T7" s="1">
+        <v>216.35300000000001</v>
+      </c>
+      <c r="U7" s="1">
+        <v>342.29759999999999</v>
+      </c>
+      <c r="V7" s="1">
+        <v>2.8614000000000002</v>
+      </c>
+      <c r="W7" s="1">
+        <v>18.055399999999999</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.1288</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>4071.7665999999999</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>2.1661999999999999</v>
+      </c>
+      <c r="AB7" s="1">
         <v>39644</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>